--- a/datas/OrganizationManage_test_datas.xlsx
+++ b/datas/OrganizationManage_test_datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17325" windowHeight="9585" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="17325" windowHeight="9585"/>
   </bookViews>
   <sheets>
     <sheet name="组织管理-员工档案-增加大区" sheetId="2" r:id="rId1"/>
@@ -208,9 +208,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -237,7 +237,107 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -252,107 +352,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -367,12 +367,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -385,169 +421,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,6 +558,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -574,6 +613,32 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -593,71 +658,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -669,7 +669,7 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -678,133 +678,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1159,8 +1159,8 @@
   <sheetPr/>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1584,7 +1584,7 @@
   <sheetPr/>
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>

--- a/datas/OrganizationManage_test_datas.xlsx
+++ b/datas/OrganizationManage_test_datas.xlsx
@@ -105,7 +105,7 @@
     <t>联系电话输入长度为12位时，增加大区失败</t>
   </si>
   <si>
-    <t>{"areaName":"自动化测试大区","areaTele":"136840891059",}</t>
+    <t>{"areaName":"自动化测试大区","areaTele":"136840891059"}</t>
   </si>
   <si>
     <t>{"errCode":200,"errMsg":"电话号码长度不能大于12位"}</t>
@@ -117,7 +117,7 @@
     <t>输入的大区经理账号不存在系统中时，增加大区失败</t>
   </si>
   <si>
-    <t>{"areaName":"自动化测试大区","areaAdmin":"哈哈哈哈哈",}</t>
+    <t>{"areaName":"自动化测试大区","areaAdmin":"哈哈哈哈哈"}</t>
   </si>
   <si>
     <t>{"errCode":200,"errMsg":"不存在此账号的大区经理"}</t>
@@ -229,6 +229,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -237,7 +284,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -251,6 +305,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -259,39 +321,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -305,23 +336,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -335,22 +351,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -367,37 +367,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,133 +529,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,6 +558,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -572,15 +596,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,17 +618,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,6 +641,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -643,21 +658,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -666,10 +666,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -678,133 +678,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1159,8 +1159,8 @@
   <sheetPr/>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/datas/OrganizationManage_test_datas.xlsx
+++ b/datas/OrganizationManage_test_datas.xlsx
@@ -4,19 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17325" windowHeight="9585"/>
+    <workbookView windowWidth="17325" windowHeight="9255" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="组织管理-员工档案-增加大区" sheetId="2" r:id="rId1"/>
     <sheet name="组织管理-员工档案-增加片区" sheetId="3" r:id="rId2"/>
     <sheet name="组织管理-员工档案-更新片区" sheetId="4" r:id="rId3"/>
+    <sheet name="邀请注册接口" sheetId="5" r:id="rId4"/>
+    <sheet name="获取新建员工邀请链接" sheetId="6" r:id="rId5"/>
+    <sheet name="获取邀请id" sheetId="7" r:id="rId6"/>
+    <sheet name="增加员工" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="114">
   <si>
     <t>id</t>
   </si>
@@ -200,6 +204,165 @@
   </si>
   <si>
     <t>{"areaId":"19551","regId":"45345","regName":"这是更新后的片区名称"}</t>
+  </si>
+  <si>
+    <t>OrganizationManage_add_inviteUserInfo_001</t>
+  </si>
+  <si>
+    <t>正确传入各参数，邀请注册员工表单提交成功</t>
+  </si>
+  <si>
+    <t>1.已登录</t>
+  </si>
+  <si>
+    <t>http://hft.myfun7.com/erpWeb/managerCenter/organization/addInviteUserInfo</t>
+  </si>
+  <si>
+    <t>{"areaId":"19551","deptId":"904205","regId":"46946","roleName":"实习经纪人","serviceReg":"1","serviceZone":"川音","serviceZoneIds":"35633","userMobile":"13684089105","userName":"自动化测试","userPosition":"bf7fcb28739a4748ad844a790a5c7cbe","userSex":"1","userStatus":"1"}</t>
+  </si>
+  <si>
+    <t>OrganizationManage_add_inviteUserInfo_002</t>
+  </si>
+  <si>
+    <t>用户名为空，邀请注册员工表单提交失败</t>
+  </si>
+  <si>
+    <t>{"areaId":"19551","regId":"46946","deptId":"904205","roleName":"中级经纪人","serviceReg":"1","serviceZone":"川音","serviceZoneIds":"35633","userMobile":"13684081000","userName":"","userPosition":"a7124d6801fc488f9f634008111c1cf1","userSex":"1","userStatus":"1"}</t>
+  </si>
+  <si>
+    <t>{"errCode":300}</t>
+  </si>
+  <si>
+    <t>OrganizationManage_add_inviteUserInfo_003</t>
+  </si>
+  <si>
+    <t>用户电话号码为空，邀请注册员工表单提交失败</t>
+  </si>
+  <si>
+    <t>{"areaId":"19551","regId":"46946","deptId":"904205","roleName":"中级经纪人","serviceReg":"1","serviceZone":"川音","serviceZoneIds":"35633","userMobile":"","userName":"何","userPosition":"a7124d6801fc488f9f634008111c1cf1","userSex":"1","userStatus":"1"}</t>
+  </si>
+  <si>
+    <t>OrganizationManage_add_inviteUserInfo_004</t>
+  </si>
+  <si>
+    <t>大区为空，邀请注册员工表单提交失败</t>
+  </si>
+  <si>
+    <t>{"areaId":"","regId":"46946","deptId":"904205","roleName":"中级经纪人","serviceReg":"1","serviceZone":"川音","serviceZoneIds":"35633","userMobile":"13684081000","userName":"何","userPosition":"a7124d6801fc488f9f634008111c1cf1","userSex":"1","userStatus":"1"}</t>
+  </si>
+  <si>
+    <t>OrganizationManage_add_inviteUserInfo_005</t>
+  </si>
+  <si>
+    <t>员工角色为空时，邀请注册员工表单提交失败</t>
+  </si>
+  <si>
+    <t>{"areaId":"19551","deptId":"904205","regId":"46946","roleName":"实习经纪人","serviceReg":"1","serviceZone":"川音","serviceZoneIds":"35633","userMobile":"13684089105","userName":"自动化测试","userPosition":"","userSex":"1","userStatus":"1"}</t>
+  </si>
+  <si>
+    <t>OrganizationManage_getInviteLink_001</t>
+  </si>
+  <si>
+    <t>参数正确传入，验证通过</t>
+  </si>
+  <si>
+    <t>http://hft.myfun7.com/erpWeb/managerCenter/organization/getInviteLink</t>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/json; charset=utf-8","CLIENTKEY":"9a7cbc7c156aaf2a0da547cdbda44959"}</t>
+  </si>
+  <si>
+    <t>{"CLIENTKEY":"9a7cbc7c156aaf2a0da547cdbda44959"}</t>
+  </si>
+  <si>
+    <t>CLIENTKEY的值为空时，获取邀请链接失败</t>
+  </si>
+  <si>
+    <t>{"CLIENTKEY":""}</t>
+  </si>
+  <si>
+    <t>OrganizationManage_getInviteId_001</t>
+  </si>
+  <si>
+    <t>各参数正确传入，获取邀请id成功</t>
+  </si>
+  <si>
+    <t>http://erpweb.myfun7.com/erpWeb/openApi/inviteRegist/validateCompInviteMsg</t>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/x-www-form-urlencoded; charset=UTF-8"}</t>
+  </si>
+  <si>
+    <t>{"param":"c","userMobile":"13689510000","code":"859652"}</t>
+  </si>
+  <si>
+    <t>OrganizationManage_addCompInviteUser_001</t>
+  </si>
+  <si>
+    <t>各参数正确传入，添加员工成功</t>
+  </si>
+  <si>
+    <t>已获取邀请链接</t>
+  </si>
+  <si>
+    <t>http://erpweb.myfun7.com/erpWeb/openApi/inviteRegist/addCompInviteUser</t>
+  </si>
+  <si>
+    <t>{"param":"cweqwew","password":"hejun123","regIds":"1","sectionIds":"35633","serviceZone":"川音","inviteId":"18631"}</t>
+  </si>
+  <si>
+    <t>OrganizationManage_addCompInviteUser_002</t>
+  </si>
+  <si>
+    <t>密码长度为6位时，添加员工失败</t>
+  </si>
+  <si>
+    <t>{"param":"cweqwew","password":"hejun1","regIds":"1","sectionIds":"35633","serviceZone":"川音","inviteId":"18631"}</t>
+  </si>
+  <si>
+    <t>OrganizationManage_addCompInviteUser_003</t>
+  </si>
+  <si>
+    <t>密码长度为20位时，添加员工失败</t>
+  </si>
+  <si>
+    <t>{"param":"cweqwew","password":"hejun123456789012345","regIds":"1","sectionIds":"35633","serviceZone":"川音","inviteId":"18631"}</t>
+  </si>
+  <si>
+    <t>OrganizationManage_addCompInviteUser_004</t>
+  </si>
+  <si>
+    <t>密码为空，添加员工失败</t>
+  </si>
+  <si>
+    <t>{"param":"cweqwew","password":"","regIds":"1","sectionIds":"35633","serviceZone":"川音","inviteId":"18631"}</t>
+  </si>
+  <si>
+    <t>OrganizationManage_addCompInviteUser_005</t>
+  </si>
+  <si>
+    <t>密码全部为数字，添加员工失败</t>
+  </si>
+  <si>
+    <t>{"param":"cweqwew","password":"123456","regIds":"1","sectionIds":"35633","serviceZone":"川音","inviteId":"18631"}</t>
+  </si>
+  <si>
+    <t>OrganizationManage_addCompInviteUser_006</t>
+  </si>
+  <si>
+    <t>密码长度为5位时，添加员工失败</t>
+  </si>
+  <si>
+    <t>{"param":"cweqwew","password":"he123","regIds":"1","sectionIds":"35633","serviceZone":"川音","inviteId":"18631"}</t>
+  </si>
+  <si>
+    <t>OrganizationManage_addCompInviteUser_007</t>
+  </si>
+  <si>
+    <t>密码长度为21位时，添加员工失败</t>
+  </si>
+  <si>
+    <t>{"param":"cweqwew","password":"hejun1234567890123456","regIds":"1","sectionIds":"35633","serviceZone":"川音","inviteId":"18631"}</t>
   </si>
 </sst>
 </file>
@@ -212,7 +375,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,46 +386,27 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -291,7 +435,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -299,22 +443,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -323,14 +474,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -345,14 +488,39 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -367,6 +535,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -385,7 +619,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,157 +685,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,6 +726,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -572,15 +749,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,8 +786,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,8 +810,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,10 +834,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -678,159 +846,168 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1159,8 +1336,8 @@
   <sheetPr/>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1226,16 +1403,16 @@
       <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G2" t="s">
@@ -1255,16 +1432,16 @@
       <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G3" t="s">
@@ -1284,16 +1461,16 @@
       <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G4" t="s">
@@ -1313,16 +1490,16 @@
       <c r="A5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G5" t="s">
@@ -1342,16 +1519,16 @@
       <c r="A6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G6" t="s">
@@ -1368,42 +1545,42 @@
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="6"/>
-      <c r="E7" s="7"/>
-      <c r="H7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" customHeight="1" spans="2:8">
-      <c r="B8" s="1"/>
-      <c r="C8" s="6"/>
-      <c r="E8" s="7"/>
-      <c r="H8" s="6"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" customHeight="1" spans="2:8">
-      <c r="B9" s="1"/>
-      <c r="C9" s="6"/>
-      <c r="E9" s="7"/>
-      <c r="H9" s="6"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" customHeight="1" spans="3:8">
-      <c r="C10" s="6"/>
-      <c r="E10" s="7"/>
-      <c r="H10" s="6"/>
+      <c r="C10" s="9"/>
+      <c r="E10" s="10"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" customHeight="1" spans="3:8">
-      <c r="C11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="H11" s="6"/>
+      <c r="C11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" customHeight="1" spans="3:8">
-      <c r="C12" s="6"/>
-      <c r="E12" s="7"/>
-      <c r="H12" s="6"/>
+      <c r="C12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" customHeight="1" spans="3:8">
-      <c r="C13" s="6"/>
-      <c r="E13" s="7"/>
-      <c r="H13" s="6"/>
+      <c r="C13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="16" customHeight="1"/>
   </sheetData>
@@ -1484,13 +1661,13 @@
       <c r="B2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G2" t="s">
@@ -1506,61 +1683,61 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="50" customHeight="1" spans="1:13">
-      <c r="A3" s="3" t="s">
+    <row r="3" s="6" customFormat="1" ht="50" customHeight="1" spans="1:13">
+      <c r="A3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="50" customHeight="1" spans="1:13">
-      <c r="A4" s="3" t="s">
+    <row r="4" s="6" customFormat="1" ht="50" customHeight="1" spans="1:13">
+      <c r="A4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1585,7 +1762,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1644,13 +1821,13 @@
       <c r="B2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>55</v>
       </c>
       <c r="G2" t="s">
@@ -1673,13 +1850,13 @@
       <c r="B3" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D3" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>55</v>
       </c>
       <c r="G3" t="s">
@@ -1703,4 +1880,722 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" ht="50" customHeight="1" spans="1:13">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" ht="50" customHeight="1" spans="1:13">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" ht="50" customHeight="1" spans="1:13">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" ht="50" customHeight="1" spans="1:13">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" ht="50" customHeight="1" spans="1:13">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" ht="50" customHeight="1"/>
+    <row r="8" ht="50" customHeight="1"/>
+    <row r="9" ht="50" customHeight="1"/>
+    <row r="10" ht="50" customHeight="1"/>
+    <row r="11" ht="50" customHeight="1"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="http://hft.myfun7.com/erpWeb/managerCenter/organization/addInviteUserInfo"/>
+    <hyperlink ref="E3" r:id="rId1" display="http://hft.myfun7.com/erpWeb/managerCenter/organization/addInviteUserInfo"/>
+    <hyperlink ref="E4" r:id="rId1" display="http://hft.myfun7.com/erpWeb/managerCenter/organization/addInviteUserInfo"/>
+    <hyperlink ref="E5" r:id="rId1" display="http://hft.myfun7.com/erpWeb/managerCenter/organization/addInviteUserInfo"/>
+    <hyperlink ref="E6" r:id="rId1" display="http://hft.myfun7.com/erpWeb/managerCenter/organization/addInviteUserInfo"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" ht="50" customHeight="1" spans="1:13">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" ht="50" customHeight="1" spans="1:13">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" ht="50" customHeight="1"/>
+    <row r="5" ht="50" customHeight="1"/>
+    <row r="6" ht="50" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" ht="50" customHeight="1" spans="1:13">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="http://erpweb.myfun7.com/erpWeb/openApi/inviteRegist/validateCompInviteMsg" tooltip="http://erpweb.myfun7.com/erpWeb/openApi/inviteRegist/validateCompInviteMsg"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" ht="50" customHeight="1" spans="1:13">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="50" customHeight="1" spans="1:13">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="50" customHeight="1" spans="1:13">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="50" customHeight="1" spans="1:13">
+      <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="50" customHeight="1" spans="1:13">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" ht="50" customHeight="1" spans="1:13">
+      <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" ht="50" customHeight="1" spans="1:13">
+      <c r="A8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" ht="50" customHeight="1"/>
+    <row r="10" ht="50" customHeight="1"/>
+    <row r="11" ht="50" customHeight="1"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="http://erpweb.myfun7.com/erpWeb/openApi/inviteRegist/addCompInviteUser" tooltip="http://erpweb.myfun7.com/erpWeb/openApi/inviteRegist/addCompInviteUser"/>
+    <hyperlink ref="E5" r:id="rId1" display="http://erpweb.myfun7.com/erpWeb/openApi/inviteRegist/addCompInviteUser" tooltip="http://erpweb.myfun7.com/erpWeb/openApi/inviteRegist/addCompInviteUser"/>
+    <hyperlink ref="E6" r:id="rId1" display="http://erpweb.myfun7.com/erpWeb/openApi/inviteRegist/addCompInviteUser" tooltip="http://erpweb.myfun7.com/erpWeb/openApi/inviteRegist/addCompInviteUser"/>
+    <hyperlink ref="E7" r:id="rId1" display="http://erpweb.myfun7.com/erpWeb/openApi/inviteRegist/addCompInviteUser" tooltip="http://erpweb.myfun7.com/erpWeb/openApi/inviteRegist/addCompInviteUser"/>
+    <hyperlink ref="E3" r:id="rId1" display="http://erpweb.myfun7.com/erpWeb/openApi/inviteRegist/addCompInviteUser" tooltip="http://erpweb.myfun7.com/erpWeb/openApi/inviteRegist/addCompInviteUser"/>
+    <hyperlink ref="E4" r:id="rId1" display="http://erpweb.myfun7.com/erpWeb/openApi/inviteRegist/addCompInviteUser" tooltip="http://erpweb.myfun7.com/erpWeb/openApi/inviteRegist/addCompInviteUser"/>
+    <hyperlink ref="E8" r:id="rId1" display="http://erpweb.myfun7.com/erpWeb/openApi/inviteRegist/addCompInviteUser" tooltip="http://erpweb.myfun7.com/erpWeb/openApi/inviteRegist/addCompInviteUser"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/datas/OrganizationManage_test_datas.xlsx
+++ b/datas/OrganizationManage_test_datas.xlsx
@@ -2234,7 +2234,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>

--- a/datas/OrganizationManage_test_datas.xlsx
+++ b/datas/OrganizationManage_test_datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17325" windowHeight="9255" firstSheet="3" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="组织管理-员工档案-增加大区" sheetId="2" r:id="rId1"/>
@@ -406,15 +406,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -434,8 +426,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -443,14 +450,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -465,22 +480,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -502,17 +503,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -525,6 +517,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -535,187 +535,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,21 +738,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -764,30 +749,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,8 +771,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -826,6 +802,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -834,10 +834,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -846,137 +846,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -994,9 +994,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1406,13 +1403,13 @@
       <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>19</v>
       </c>
       <c r="G2" t="s">
@@ -1435,13 +1432,13 @@
       <c r="B3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>19</v>
       </c>
       <c r="G3" t="s">
@@ -1464,13 +1461,13 @@
       <c r="B4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>19</v>
       </c>
       <c r="G4" t="s">
@@ -1493,13 +1490,13 @@
       <c r="B5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>19</v>
       </c>
       <c r="G5" t="s">
@@ -1522,13 +1519,13 @@
       <c r="B6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>19</v>
       </c>
       <c r="G6" t="s">
@@ -1546,41 +1543,41 @@
     </row>
     <row r="7" customHeight="1" spans="2:8">
       <c r="B7" s="5"/>
-      <c r="C7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="H7" s="9"/>
+      <c r="C7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" customHeight="1" spans="2:8">
       <c r="B8" s="5"/>
-      <c r="C8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="H8" s="9"/>
+      <c r="C8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" customHeight="1" spans="2:8">
       <c r="B9" s="5"/>
-      <c r="C9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="H9" s="9"/>
+      <c r="C9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" customHeight="1" spans="3:8">
-      <c r="C10" s="9"/>
-      <c r="E10" s="10"/>
-      <c r="H10" s="9"/>
+      <c r="C10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" customHeight="1" spans="3:8">
-      <c r="C11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="H11" s="9"/>
+      <c r="C11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" customHeight="1" spans="3:8">
-      <c r="C12" s="9"/>
-      <c r="E12" s="10"/>
-      <c r="H12" s="9"/>
+      <c r="C12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" customHeight="1" spans="3:8">
-      <c r="C13" s="9"/>
-      <c r="E13" s="10"/>
-      <c r="H13" s="9"/>
+      <c r="C13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="16" customHeight="1"/>
   </sheetData>
@@ -1683,61 +1680,61 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" s="6" customFormat="1" ht="50" customHeight="1" spans="1:13">
-      <c r="A3" s="6" t="s">
+    <row r="3" s="1" customFormat="1" ht="50" customHeight="1" spans="1:13">
+      <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" s="6" customFormat="1" ht="50" customHeight="1" spans="1:13">
-      <c r="A4" s="6" t="s">
+    <row r="4" s="1" customFormat="1" ht="50" customHeight="1" spans="1:13">
+      <c r="A4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="1" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1887,8 +1884,8 @@
   <sheetPr/>
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2233,7 +2230,7 @@
   <sheetPr/>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
